--- a/data/case1/14/Qlm1_5.xlsx
+++ b/data/case1/14/Qlm1_5.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.21863370660732073</v>
+        <v>-0.25566983192155135</v>
       </c>
       <c r="B1" s="0">
-        <v>0.21822755462999766</v>
+        <v>0.25511599810452168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16497115794429362</v>
+        <v>-0.16045132858999622</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16382253825154436</v>
+        <v>0.15942382778356823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.084216187511090723</v>
+        <v>-0.10970891086013701</v>
       </c>
       <c r="B3" s="0">
-        <v>0.084092694877641705</v>
+        <v>0.10946169202580514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.076092694994025933</v>
+        <v>-0.10146169206647571</v>
       </c>
       <c r="B4" s="0">
-        <v>0.07584151762545055</v>
+        <v>0.10103289845312879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.072841517691377256</v>
+        <v>-0.098032898476706265</v>
       </c>
       <c r="B5" s="0">
-        <v>0.072004615310135023</v>
+        <v>0.096579645607637765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035870249744327509</v>
+        <v>-0.052714290666662222</v>
       </c>
       <c r="B6" s="0">
-        <v>0.035562394196364977</v>
+        <v>0.052106471282517219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.025562394357751206</v>
+        <v>-0.04210647134090717</v>
       </c>
       <c r="B7" s="0">
-        <v>0.02549840658028435</v>
+        <v>0.041953140428264923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.015498406745283244</v>
+        <v>-0.031953140488784726</v>
       </c>
       <c r="B8" s="0">
-        <v>0.015412145702374591</v>
+        <v>0.031664939508263323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.013412145781084295</v>
+        <v>-0.029664939539981727</v>
       </c>
       <c r="B9" s="0">
-        <v>0.013350090056300612</v>
+        <v>0.029422789251294823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.011350090138323665</v>
+        <v>-0.027422789285393989</v>
       </c>
       <c r="B10" s="0">
-        <v>0.011349434691833693</v>
+        <v>0.027406167291085026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0083494347854955464</v>
+        <v>-0.024406167329366291</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0083461073834856236</v>
+        <v>0.024378727173357539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0048461074832544249</v>
+        <v>-0.020878727214204584</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0048237521636904646</v>
+        <v>0.020677416147119931</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0013237522652982392</v>
+        <v>-0.017177416190463646</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0013193160176392382</v>
+        <v>0.017085624151106593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0066806838298116844</v>
+        <v>-0.0090856242128962705</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0066815612971637961</v>
+        <v>0.0090555255287085856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0076815612239107267</v>
+        <v>-0.0080555255634155998</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0076853193644357276</v>
+        <v>0.0080360758636546237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060340180913440733</v>
+        <v>-0.0060360759027298094</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003117469207897</v>
+        <v>0.0060037374323704817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040031175545838238</v>
+        <v>-0.0040037374720940377</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999998917439328</v>
+        <v>0.0039999999522626339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016100709233839439</v>
+        <v>-0.038923285815570807</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016090927961400325</v>
+        <v>0.038859779162837782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090928009464985</v>
+        <v>-0.034859779180274941</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015961079255177</v>
+        <v>0.034420531516216268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080159611311998447</v>
+        <v>-0.030420531537631135</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056361151168431</v>
+        <v>0.030305863622949403</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056361675864238</v>
+        <v>-0.026305863645186278</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999472666303</v>
+        <v>0.026146649338259387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.075606350805582423</v>
+        <v>-0.045714916945808426</v>
       </c>
       <c r="B22" s="0">
-        <v>0.075087086462466424</v>
+        <v>0.045500645663331341</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.07008708654579543</v>
+        <v>-0.040500645690947579</v>
       </c>
       <c r="B23" s="0">
-        <v>0.069036874975831886</v>
+        <v>0.040099388616101628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.049036875242681077</v>
+        <v>-0.020099388704950094</v>
       </c>
       <c r="B24" s="0">
-        <v>0.048543206917988968</v>
+        <v>0.019999999910014665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.034134365635297925</v>
+        <v>-0.041865354966995838</v>
       </c>
       <c r="B25" s="0">
-        <v>0.034124310263644375</v>
+        <v>0.04184747197277261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.031624310339395834</v>
+        <v>-0.039347472000814676</v>
       </c>
       <c r="B26" s="0">
-        <v>0.03161276282783021</v>
+        <v>0.039327251996898127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.029112762904851319</v>
+        <v>-0.036827252025572577</v>
       </c>
       <c r="B27" s="0">
-        <v>0.02904534801415215</v>
+        <v>0.036719598011912602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.027045348092478605</v>
+        <v>-0.034719598041472288</v>
       </c>
       <c r="B28" s="0">
-        <v>0.027007517237638723</v>
+        <v>0.034654833213654257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.020007517376900097</v>
+        <v>-0.027654833264819878</v>
       </c>
       <c r="B29" s="0">
-        <v>0.020001733399279686</v>
+        <v>0.02764188566998893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.039998265863034899</v>
+        <v>0.032358114069944932</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.040132774668982574</v>
+        <v>-0.032449675881885742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014020619553209102</v>
+        <v>0.039449675831994213</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000882827616579</v>
+        <v>-0.039514850691713121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008829952515867</v>
+        <v>0.01373359999162993</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998999036279</v>
+        <v>-0.013750536784373324</v>
       </c>
     </row>
   </sheetData>
